--- a/data/animals.xlsx
+++ b/data/animals.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\github\jbreda_animal_training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\github\jbreda_animal_training\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C098193-FD20-4373-A35A-DDBC503B5C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3FBC82-A52E-483C-9286-389AF19CF832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="2205" windowWidth="18000" windowHeight="9360" xr2:uid="{6533A8A6-44E6-4283-9B10-8647EC8BD946}"/>
+    <workbookView xWindow="1395" yWindow="4050" windowWidth="18225" windowHeight="15435" xr2:uid="{6533A8A6-44E6-4283-9B10-8647EC8BD946}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="34">
   <si>
     <t>animal_id</t>
   </si>
@@ -98,9 +98,6 @@
     <t>active</t>
   </si>
   <si>
-    <t>gained</t>
-  </si>
-  <si>
     <t>nan</t>
   </si>
   <si>
@@ -132,6 +129,15 @@
   </si>
   <si>
     <t>long_evans</t>
+  </si>
+  <si>
+    <t>on_citric</t>
+  </si>
+  <si>
+    <t>off_citric</t>
+  </si>
+  <si>
+    <t>pub_minimum</t>
   </si>
 </sst>
 </file>
@@ -490,22 +496,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E78FA1-F6EA-49AF-8317-F2B2D004F2C4}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="3" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="5" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,385 +522,511 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
       <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1">
         <v>45040</v>
       </c>
       <c r="F2" s="1">
+        <v>45107</v>
+      </c>
+      <c r="G2" s="1">
         <v>45119</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2">
+      <c r="H2" s="1">
+        <v>45125</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2">
         <v>26.14</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <f>J2*0.04</f>
+        <v>1.0456000000000001</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1">
         <v>45040</v>
       </c>
       <c r="F3" s="1">
+        <v>45107</v>
+      </c>
+      <c r="G3" s="1">
         <v>45119</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3">
+      <c r="H3" s="1">
+        <v>45125</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3">
         <v>25.84</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f t="shared" ref="K3:K8" si="0">J3*0.04</f>
+        <v>1.0336000000000001</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1">
         <v>45040</v>
       </c>
       <c r="F4" s="1">
+        <v>45107</v>
+      </c>
+      <c r="G4" s="1">
         <v>45119</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4">
+      <c r="H4" s="1">
+        <v>45125</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4">
         <v>27.45</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1">
         <v>45041</v>
       </c>
-      <c r="H5">
-        <v>18.96</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
+      <c r="F5" s="1">
+        <v>45114</v>
+      </c>
+      <c r="G5" s="1">
+        <v>45133</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19.32</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>0.77280000000000004</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1">
         <v>45041</v>
       </c>
-      <c r="H6">
-        <v>19.96</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
+      <c r="F6" s="1">
+        <v>45114</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45133</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20.260000000000002</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0.81040000000000012</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1">
         <v>45041</v>
       </c>
-      <c r="H7">
-        <v>18.22</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
+      <c r="F7" s="1">
+        <v>45114</v>
+      </c>
+      <c r="G7" s="1">
+        <v>45133</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18.46</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0.73840000000000006</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1">
         <v>45041</v>
       </c>
-      <c r="H8">
-        <v>18.37</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
+      <c r="F8" s="1">
+        <v>45114</v>
+      </c>
+      <c r="G8" s="1">
+        <v>45133</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18.46</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0.73840000000000006</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1">
         <v>45083</v>
       </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1">
         <v>45083</v>
       </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
       <c r="H10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1">
         <v>45083</v>
       </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
       <c r="H11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1">
         <v>45083</v>
       </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1">
+        <v>45121</v>
+      </c>
       <c r="H12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1">
         <v>45083</v>
       </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1">
+        <v>45121</v>
+      </c>
       <c r="H13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1">
         <v>45083</v>
       </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="1">
+        <v>45121</v>
+      </c>
       <c r="H14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/animals.xlsx
+++ b/data/animals.xlsx
@@ -1,17 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\github\jbreda_animal_training\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D0039D-44ED-4C8E-ACBB-1926D6573ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="1395" yWindow="4050" windowWidth="28440" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={51FE5B87-7592-4421-B898-5E8B1A9B0095}</author>
+    <author>tc={DFE9B935-3688-4E36-86B7-E395C2EBB936}</author>
+  </authors>
+  <commentList>
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{51FE5B87-7592-4421-B898-5E8B1A9B0095}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Started on go cue guide curricula, but this failed to reverted back to the classic</t>
+      </text>
+    </comment>
+    <comment ref="I15" authorId="1" shapeId="0" xr:uid="{DFE9B935-3688-4E36-86B7-E395C2EBB936}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Started on the pbups curricula and then julia gave to me for debugging
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="52">
   <si>
     <t>animal_id</t>
   </si>
@@ -134,29 +184,59 @@
   </si>
   <si>
     <t>C223</t>
+  </si>
+  <si>
+    <t>R020</t>
+  </si>
+  <si>
+    <t>R021</t>
+  </si>
+  <si>
+    <t>R022</t>
+  </si>
+  <si>
+    <t>R023</t>
+  </si>
+  <si>
+    <t>R024</t>
+  </si>
+  <si>
+    <t>R025</t>
+  </si>
+  <si>
+    <t>R026</t>
+  </si>
+  <si>
+    <t>R027</t>
+  </si>
+  <si>
+    <t>R028</t>
+  </si>
+  <si>
+    <t>R029</t>
+  </si>
+  <si>
+    <t>cohort</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color indexed="8"/>
+      <sz val="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -168,7 +248,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -191,31 +271,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -224,23 +303,91 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Jess Breda" id="{874BCA39-627A-4CA8-AB2E-BE123379D04A}" userId="S::jbreda@princeton.edu::609fa1e6-dfce-4da9-b058-837679d8b4b3" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -442,7 +589,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -461,7 +608,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -491,7 +638,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -517,7 +664,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -543,7 +690,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -569,7 +716,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -595,7 +742,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -621,7 +768,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -647,7 +794,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -673,7 +820,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -699,7 +846,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -712,9 +859,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -731,7 +884,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -750,7 +903,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -776,7 +929,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -802,7 +955,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -828,7 +981,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -854,7 +1007,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -880,7 +1033,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -906,7 +1059,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -932,7 +1085,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -958,7 +1111,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -984,7 +1137,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -997,9 +1150,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1013,7 +1172,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1032,7 +1191,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1062,7 +1221,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1088,7 +1247,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1114,7 +1273,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1140,7 +1299,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1166,7 +1325,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1192,7 +1351,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1218,7 +1377,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1244,7 +1403,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1270,7 +1429,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1283,83 +1442,107 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="I9" dT="2023-10-06T20:11:34.10" personId="{874BCA39-627A-4CA8-AB2E-BE123379D04A}" id="{51FE5B87-7592-4421-B898-5E8B1A9B0095}">
+    <text>Started on go cue guide curricula, but this failed to reverted back to the classic</text>
+  </threadedComment>
+  <threadedComment ref="I15" dT="2023-10-06T20:12:00.31" personId="{874BCA39-627A-4CA8-AB2E-BE123379D04A}" id="{DFE9B935-3688-4E36-86B7-E395C2EBB936}">
+    <text xml:space="preserve">Started on the pbups curricula and then julia gave to me for debugging
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.8516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.8516" style="1" customWidth="1"/>
-    <col min="5" max="6" width="17.8516" style="1" customWidth="1"/>
-    <col min="7" max="9" width="20.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.85546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="17.85546875" style="1" customWidth="1"/>
+    <col min="7" max="9" width="20.85546875" style="1" customWidth="1"/>
     <col min="10" max="11" width="16" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85156" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="12" max="13" width="8.85546875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="2">
+      <c r="M1" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="3">
@@ -1374,31 +1557,34 @@
       <c r="H2" s="3">
         <v>45125</v>
       </c>
-      <c r="I2" t="s" s="2">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="4">
         <v>26.14</v>
       </c>
       <c r="K2" s="4">
-        <f>J2*0.04</f>
-        <v>1.0456</v>
+        <f t="shared" ref="K2:K8" si="0">J2*0.04</f>
+        <v>1.0456000000000001</v>
       </c>
       <c r="L2" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="2">
+      <c r="M2" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="3">
@@ -1413,31 +1599,34 @@
       <c r="H3" s="3">
         <v>45125</v>
       </c>
-      <c r="I3" t="s" s="2">
+      <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="4">
         <v>25.84</v>
       </c>
       <c r="K3" s="4">
-        <f>J3*0.04</f>
-        <v>1.0336</v>
+        <f t="shared" si="0"/>
+        <v>1.0336000000000001</v>
       </c>
       <c r="L3" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" t="s" s="2">
+      <c r="M3" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="3">
@@ -1452,31 +1641,34 @@
       <c r="H4" s="3">
         <v>45125</v>
       </c>
-      <c r="I4" t="s" s="2">
+      <c r="I4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="4">
         <v>27.45</v>
       </c>
       <c r="K4" s="4">
-        <f>J4*0.04</f>
-        <v>1.098</v>
+        <f t="shared" si="0"/>
+        <v>1.0980000000000001</v>
       </c>
       <c r="L4" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" t="s" s="2">
+      <c r="M4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="3">
@@ -1489,31 +1681,34 @@
         <v>45133</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" t="s" s="2">
+      <c r="I5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="4">
         <v>19.32</v>
       </c>
       <c r="K5" s="4">
-        <f>J5*0.04</f>
-        <v>0.7728</v>
+        <f t="shared" si="0"/>
+        <v>0.77280000000000004</v>
       </c>
       <c r="L5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" t="s" s="2">
+      <c r="M5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s" s="2">
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="3">
@@ -1526,31 +1721,34 @@
         <v>45133</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" t="s" s="2">
+      <c r="I6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="4">
-        <v>20.26</v>
+        <v>20.260000000000002</v>
       </c>
       <c r="K6" s="4">
-        <f>J6*0.04</f>
-        <v>0.8104</v>
+        <f t="shared" si="0"/>
+        <v>0.81040000000000012</v>
       </c>
       <c r="L6" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="2">
+      <c r="M6" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="3">
@@ -1563,31 +1761,34 @@
         <v>45133</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" t="s" s="2">
+      <c r="I7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="4">
         <v>18.46</v>
       </c>
       <c r="K7" s="4">
-        <f>J7*0.04</f>
-        <v>0.7383999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.73840000000000006</v>
       </c>
       <c r="L7" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" t="s" s="2">
+      <c r="M7" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s" s="2">
+      <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="3">
@@ -1600,475 +1801,902 @@
         <v>45133</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" t="s" s="2">
+      <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="4">
         <v>18.46</v>
       </c>
       <c r="K8" s="4">
-        <f>J8*0.04</f>
-        <v>0.7383999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.73840000000000006</v>
       </c>
       <c r="L8" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" t="s" s="2">
+      <c r="M8" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s" s="2">
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s" s="2">
+      <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="3">
         <v>45083</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="3">
         <v>45151</v>
       </c>
-      <c r="H9" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="K9" t="s" s="2">
+      <c r="H9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="L9" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" t="s" s="2">
+      <c r="M9" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s" s="2">
+      <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="3">
         <v>45083</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="3">
         <v>45151</v>
       </c>
-      <c r="H10" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="K10" t="s" s="2">
+      <c r="H10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="L10" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" t="s" s="2">
+      <c r="M10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="3">
         <v>45083</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="3">
         <v>45151</v>
       </c>
-      <c r="H11" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="K11" t="s" s="2">
+      <c r="H11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="L11" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" t="s" s="2">
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="3">
         <v>45083</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="3">
         <v>45121</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="I12" t="s" s="2">
+      <c r="H12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J12" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="K12" t="s" s="2">
+      <c r="J12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="L12" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" t="s" s="2">
+      <c r="M12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="3">
         <v>45083</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="3">
         <v>45121</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="I13" t="s" s="2">
+      <c r="H13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J13" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="K13" t="s" s="2">
+      <c r="J13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="L13" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" t="s" s="2">
+      <c r="M13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="3">
         <v>45083</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="3">
         <v>45121</v>
       </c>
-      <c r="H14" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="I14" t="s" s="2">
+      <c r="H14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J14" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="K14" t="s" s="2">
+      <c r="J14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="L14" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" t="s" s="2">
+      <c r="M14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="3">
         <v>45013</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="3">
         <v>45153</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="I15" t="s" s="2">
+      <c r="H15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J15" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="K15" t="s" s="2">
+      <c r="J15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" t="s" s="2">
+      <c r="M15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="3">
         <v>45013</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G16" s="3">
         <v>45153</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="I16" t="s" s="2">
+      <c r="H16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J16" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="K16" t="s" s="2">
+      <c r="J16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="L16" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" t="s" s="2">
+      <c r="M16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="3">
         <v>45013</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G17" s="3">
         <v>45153</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="I17" t="s" s="2">
+      <c r="H17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J17" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="K17" t="s" s="2">
+      <c r="J17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>28</v>
       </c>
       <c r="L17" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" t="s" s="2">
+      <c r="M17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="3">
         <v>45013</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G18" s="3">
         <v>45153</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="I18" t="s" s="2">
+      <c r="H18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J18" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="K18" t="s" s="2">
+      <c r="J18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="L18" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" t="s" s="2">
+      <c r="M18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="3">
         <v>45013</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G19" s="3">
         <v>45153</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="I19" t="s" s="2">
+      <c r="H19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J19" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="K19" t="s" s="2">
+      <c r="J19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="L19" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" t="s" s="2">
+      <c r="M19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="3">
         <v>45013</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G20" s="3">
         <v>45153</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="I20" t="s" s="2">
+      <c r="H20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J20" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="K20" t="s" s="2">
+      <c r="J20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="L20" s="4">
         <v>1</v>
       </c>
+      <c r="M20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="7">
+        <v>45181</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="6">
+        <v>1</v>
+      </c>
+      <c r="M21" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="7">
+        <v>45181</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" s="6">
+        <v>1</v>
+      </c>
+      <c r="M22" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="7">
+        <v>45181</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="6">
+        <v>1</v>
+      </c>
+      <c r="M23" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="7">
+        <v>45181</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="6">
+        <v>1</v>
+      </c>
+      <c r="M24" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="7">
+        <v>45181</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" s="6">
+        <v>1</v>
+      </c>
+      <c r="M25" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="7">
+        <v>45181</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="6">
+        <v>1</v>
+      </c>
+      <c r="M26" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="7">
+        <v>45181</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="6">
+        <v>1</v>
+      </c>
+      <c r="M27" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="7">
+        <v>45181</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="6">
+        <v>1</v>
+      </c>
+      <c r="M28" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="7">
+        <v>45181</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="6">
+        <v>1</v>
+      </c>
+      <c r="M29" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="7">
+        <v>45181</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="6">
+        <v>1</v>
+      </c>
+      <c r="M30" s="6">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/animals.xlsx
+++ b/data/animals.xlsx
@@ -1,59 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\github\jbreda_animal_training\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D0039D-44ED-4C8E-ACBB-1926D6573ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="1395" yWindow="4050" windowWidth="28440" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={51FE5B87-7592-4421-B898-5E8B1A9B0095}</author>
     <author>tc={DFE9B935-3688-4E36-86B7-E395C2EBB936}</author>
   </authors>
   <commentList>
-    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{51FE5B87-7592-4421-B898-5E8B1A9B0095}">
+    <comment ref="I9" authorId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>tc={51FE5B87-7592-4421-B898-5E8B1A9B0095}:
+[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Started on go cue guide curricula, but this failed to reverted back to the classic</t>
+        </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="1" shapeId="0" xr:uid="{DFE9B935-3688-4E36-86B7-E395C2EBB936}">
+    <comment ref="I15" authorId="1">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">tc={DFE9B935-3688-4E36-86B7-E395C2EBB936}:
+[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Started on the pbups curricula and then julia gave to me for debugging
 </t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -61,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>animal_id</t>
   </si>
@@ -99,6 +93,9 @@
     <t>active</t>
   </si>
   <si>
+    <t>cohort</t>
+  </si>
+  <si>
     <t>R511</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
     <t>nan</t>
   </si>
   <si>
+    <t>JB_r_classic, JB_r_classic_pro_anti</t>
+  </si>
+  <si>
     <t>R011</t>
   </si>
   <si>
@@ -159,18 +159,18 @@
     <t>R013</t>
   </si>
   <si>
+    <t>R014</t>
+  </si>
+  <si>
+    <t>R015</t>
+  </si>
+  <si>
+    <t>C214</t>
+  </si>
+  <si>
     <t>JB_r_classic</t>
   </si>
   <si>
-    <t>R014</t>
-  </si>
-  <si>
-    <t>R015</t>
-  </si>
-  <si>
-    <t>C214</t>
-  </si>
-  <si>
     <t>C215</t>
   </si>
   <si>
@@ -216,39 +216,80 @@
     <t>R029</t>
   </si>
   <si>
-    <t>cohort</t>
+    <t>R030</t>
+  </si>
+  <si>
+    <t>R031</t>
+  </si>
+  <si>
+    <t>R032</t>
+  </si>
+  <si>
+    <t>R033</t>
+  </si>
+  <si>
+    <t>R034</t>
+  </si>
+  <si>
+    <t>R035</t>
+  </si>
+  <si>
+    <t>R036</t>
+  </si>
+  <si>
+    <t>R037</t>
+  </si>
+  <si>
+    <t>R038</t>
+  </si>
+  <si>
+    <t>R039</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="15"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -258,43 +299,44 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -303,91 +345,28 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Jess Breda" id="{874BCA39-627A-4CA8-AB2E-BE123379D04A}" userId="S::jbreda@princeton.edu::609fa1e6-dfce-4da9-b058-837679d8b4b3" providerId="AD"/>
-</personList>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -579,17 +558,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -608,7 +587,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -617,10 +596,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -638,7 +617,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -664,7 +643,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -690,7 +669,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -716,7 +695,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -742,7 +721,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -768,7 +747,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -794,7 +773,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -820,7 +799,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -846,7 +825,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -859,32 +838,26 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -903,7 +876,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -929,7 +902,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -955,7 +928,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -981,7 +954,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1007,7 +980,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1033,7 +1006,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1059,7 +1032,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1085,7 +1058,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1111,7 +1084,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1137,7 +1110,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1150,15 +1123,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1172,7 +1139,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1191,7 +1158,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1200,10 +1167,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1221,7 +1188,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1247,7 +1214,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1273,7 +1240,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1299,7 +1266,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1325,7 +1292,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1351,7 +1318,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1377,7 +1344,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1403,7 +1370,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1429,7 +1396,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1442,108 +1409,87 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="I9" dT="2023-10-06T20:11:34.10" personId="{874BCA39-627A-4CA8-AB2E-BE123379D04A}" id="{51FE5B87-7592-4421-B898-5E8B1A9B0095}">
-    <text>Started on go cue guide curricula, but this failed to reverted back to the classic</text>
-  </threadedComment>
-  <threadedComment ref="I15" dT="2023-10-06T20:12:00.31" personId="{874BCA39-627A-4CA8-AB2E-BE123379D04A}" id="{DFE9B935-3688-4E36-86B7-E395C2EBB936}">
-    <text xml:space="preserve">Started on the pbups curricula and then julia gave to me for debugging
-</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M30"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.85546875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="17.85546875" style="1" customWidth="1"/>
-    <col min="7" max="9" width="20.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85156" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.8516" style="1" customWidth="1"/>
+    <col min="5" max="6" width="17.8516" style="1" customWidth="1"/>
+    <col min="7" max="9" width="20.8516" style="1" customWidth="1"/>
     <col min="10" max="11" width="16" style="1" customWidth="1"/>
-    <col min="12" max="13" width="8.85546875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="1"/>
+    <col min="12" max="13" width="8.85156" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="13.5" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="M1" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="2" ht="13.5" customHeight="1">
+      <c r="A2" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>15</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>16</v>
       </c>
       <c r="E2" s="3">
         <v>45040</v>
@@ -1557,35 +1503,35 @@
       <c r="H2" s="3">
         <v>45125</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
+      <c r="I2" t="s" s="2">
+        <v>17</v>
       </c>
       <c r="J2" s="4">
         <v>26.14</v>
       </c>
       <c r="K2" s="4">
-        <f t="shared" ref="K2:K8" si="0">J2*0.04</f>
-        <v>1.0456000000000001</v>
+        <f>J2*0.04</f>
+        <v>1.0456</v>
       </c>
       <c r="L2" s="4">
         <v>1</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    <row r="3" ht="13.5" customHeight="1">
+      <c r="A3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>15</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>16</v>
       </c>
       <c r="E3" s="3">
         <v>45040</v>
@@ -1599,35 +1545,35 @@
       <c r="H3" s="3">
         <v>45125</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>16</v>
+      <c r="I3" t="s" s="2">
+        <v>17</v>
       </c>
       <c r="J3" s="4">
         <v>25.84</v>
       </c>
       <c r="K3" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0336000000000001</v>
+        <f>J3*0.04</f>
+        <v>1.0336</v>
       </c>
       <c r="L3" s="4">
         <v>1</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
+    <row r="4" ht="13.5" customHeight="1">
+      <c r="A4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s" s="2">
         <v>15</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>16</v>
       </c>
       <c r="E4" s="3">
         <v>45040</v>
@@ -1641,35 +1587,35 @@
       <c r="H4" s="3">
         <v>45125</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>16</v>
+      <c r="I4" t="s" s="2">
+        <v>17</v>
       </c>
       <c r="J4" s="4">
         <v>27.45</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0980000000000001</v>
+        <f>J4*0.04</f>
+        <v>1.098</v>
       </c>
       <c r="L4" s="4">
         <v>1</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" ht="13.5" customHeight="1">
+      <c r="A5" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B5" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s" s="2">
         <v>15</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>16</v>
       </c>
       <c r="E5" s="3">
         <v>45041</v>
@@ -1681,35 +1627,35 @@
         <v>45133</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="2" t="s">
-        <v>16</v>
+      <c r="I5" t="s" s="2">
+        <v>17</v>
       </c>
       <c r="J5" s="4">
         <v>19.32</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" si="0"/>
-        <v>0.77280000000000004</v>
+        <f>J5*0.04</f>
+        <v>0.7728</v>
       </c>
       <c r="L5" s="4">
         <v>1</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" ht="13.5" customHeight="1">
+      <c r="A6" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
+      <c r="C6" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>23</v>
       </c>
       <c r="E6" s="3">
         <v>45041</v>
@@ -1721,35 +1667,35 @@
         <v>45133</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="2" t="s">
+      <c r="I6" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J6" s="4">
+        <v>20.26</v>
+      </c>
+      <c r="K6" s="4">
+        <f>J6*0.04</f>
+        <v>0.8104</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" ht="13.5" customHeight="1">
+      <c r="A7" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="2">
         <v>16</v>
-      </c>
-      <c r="J6" s="4">
-        <v>20.260000000000002</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.81040000000000012</v>
-      </c>
-      <c r="L6" s="4">
-        <v>1</v>
-      </c>
-      <c r="M6" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E7" s="3">
         <v>45041</v>
@@ -1761,35 +1707,35 @@
         <v>45133</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="2" t="s">
-        <v>16</v>
+      <c r="I7" t="s" s="2">
+        <v>17</v>
       </c>
       <c r="J7" s="4">
         <v>18.46</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.73840000000000006</v>
+        <f>J7*0.04</f>
+        <v>0.7383999999999999</v>
       </c>
       <c r="L7" s="4">
         <v>1</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
+    <row r="8" ht="13.5" customHeight="1">
+      <c r="A8" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>23</v>
       </c>
       <c r="E8" s="3">
         <v>45041</v>
@@ -1801,902 +1747,1322 @@
         <v>45133</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="2" t="s">
-        <v>16</v>
+      <c r="I8" t="s" s="2">
+        <v>17</v>
       </c>
       <c r="J8" s="4">
         <v>18.46</v>
       </c>
       <c r="K8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.73840000000000006</v>
+        <f>J8*0.04</f>
+        <v>0.7383999999999999</v>
       </c>
       <c r="L8" s="4">
         <v>1</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    <row r="9" ht="13.5" customHeight="1">
+      <c r="A9" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>27</v>
+      <c r="B9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>28</v>
       </c>
       <c r="E9" s="3">
         <v>45083</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
+      <c r="F9" t="s" s="2">
+        <v>29</v>
       </c>
       <c r="G9" s="3">
         <v>45151</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>28</v>
+      <c r="H9" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>29</v>
       </c>
       <c r="L9" s="4">
         <v>1</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>27</v>
+    <row r="10" ht="13.5" customHeight="1">
+      <c r="A10" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>28</v>
       </c>
       <c r="E10" s="3">
         <v>45083</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>28</v>
+      <c r="F10" t="s" s="2">
+        <v>29</v>
       </c>
       <c r="G10" s="3">
         <v>45151</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="H10" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="13.5" customHeight="1">
+      <c r="A11" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="4">
-        <v>1</v>
-      </c>
-      <c r="M10" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>27</v>
+      <c r="B11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>28</v>
       </c>
       <c r="E11" s="3">
         <v>45083</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>28</v>
+      <c r="F11" t="s" s="2">
+        <v>29</v>
       </c>
       <c r="G11" s="3">
         <v>45151</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>28</v>
+      <c r="H11" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>29</v>
       </c>
       <c r="L11" s="4">
         <v>1</v>
       </c>
-      <c r="M11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
+      <c r="M11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="13.5" customHeight="1">
+      <c r="A12" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>28</v>
       </c>
       <c r="E12" s="3">
         <v>45083</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>28</v>
+      <c r="F12" t="s" s="2">
+        <v>29</v>
       </c>
       <c r="G12" s="3">
         <v>45121</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>28</v>
+      <c r="H12" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>29</v>
       </c>
       <c r="L12" s="4">
         <v>1</v>
       </c>
-      <c r="M12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>27</v>
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="13.5" customHeight="1">
+      <c r="A13" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>28</v>
       </c>
       <c r="E13" s="3">
         <v>45083</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>28</v>
+      <c r="F13" t="s" s="2">
+        <v>29</v>
       </c>
       <c r="G13" s="3">
         <v>45121</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>28</v>
+      <c r="H13" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>29</v>
       </c>
       <c r="L13" s="4">
         <v>1</v>
       </c>
-      <c r="M13" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>27</v>
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="13.5" customHeight="1">
+      <c r="A14" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>28</v>
       </c>
       <c r="E14" s="3">
         <v>45083</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>28</v>
+      <c r="F14" t="s" s="2">
+        <v>29</v>
       </c>
       <c r="G14" s="3">
         <v>45121</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>28</v>
+      <c r="H14" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>29</v>
       </c>
       <c r="L14" s="4">
         <v>1</v>
       </c>
-      <c r="M14" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>27</v>
+      <c r="M14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="13.5" customHeight="1">
+      <c r="A15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>28</v>
       </c>
       <c r="E15" s="3">
         <v>45013</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>28</v>
+      <c r="F15" t="s" s="2">
+        <v>29</v>
       </c>
       <c r="G15" s="3">
         <v>45153</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>28</v>
+      <c r="H15" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>29</v>
       </c>
       <c r="L15" s="4">
         <v>1</v>
       </c>
-      <c r="M15" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>27</v>
+      <c r="M15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="13.5" customHeight="1">
+      <c r="A16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>28</v>
       </c>
       <c r="E16" s="3">
         <v>45013</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>28</v>
+      <c r="F16" t="s" s="2">
+        <v>29</v>
       </c>
       <c r="G16" s="3">
         <v>45153</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>28</v>
+      <c r="H16" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>29</v>
       </c>
       <c r="L16" s="4">
         <v>1</v>
       </c>
-      <c r="M16" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>27</v>
+      <c r="M16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="13.5" customHeight="1">
+      <c r="A17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>28</v>
       </c>
       <c r="E17" s="3">
         <v>45013</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>28</v>
+      <c r="F17" t="s" s="2">
+        <v>29</v>
       </c>
       <c r="G17" s="3">
         <v>45153</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>28</v>
+      <c r="H17" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>29</v>
       </c>
       <c r="L17" s="4">
         <v>1</v>
       </c>
-      <c r="M17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>27</v>
+      <c r="M17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="13.5" customHeight="1">
+      <c r="A18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>28</v>
       </c>
       <c r="E18" s="3">
         <v>45013</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>28</v>
+      <c r="F18" t="s" s="2">
+        <v>29</v>
       </c>
       <c r="G18" s="3">
         <v>45153</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>28</v>
+      <c r="H18" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>29</v>
       </c>
       <c r="L18" s="4">
         <v>1</v>
       </c>
-      <c r="M18" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>27</v>
+      <c r="M18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="13.5" customHeight="1">
+      <c r="A19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>28</v>
       </c>
       <c r="E19" s="3">
         <v>45013</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>28</v>
+      <c r="F19" t="s" s="2">
+        <v>29</v>
       </c>
       <c r="G19" s="3">
         <v>45153</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>28</v>
+      <c r="H19" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>29</v>
       </c>
       <c r="L19" s="4">
         <v>1</v>
       </c>
-      <c r="M19" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>27</v>
+      <c r="M19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="13.5" customHeight="1">
+      <c r="A20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>28</v>
       </c>
       <c r="E20" s="3">
         <v>45013</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>28</v>
+      <c r="F20" t="s" s="2">
+        <v>29</v>
       </c>
       <c r="G20" s="3">
         <v>45153</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>28</v>
+      <c r="H20" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>29</v>
       </c>
       <c r="L20" s="4">
         <v>1</v>
       </c>
-      <c r="M20" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="M20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="E21" s="3">
         <v>45181</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="6">
-        <v>1</v>
-      </c>
-      <c r="M21" s="6">
+      <c r="F21" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G21" s="3">
+        <v>45213</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L21" s="4">
+        <v>1</v>
+      </c>
+      <c r="M21" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="7">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="E22" s="3">
         <v>45181</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L22" s="6">
-        <v>1</v>
-      </c>
-      <c r="M22" s="6">
+      <c r="F22" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G22" s="3">
+        <v>45213</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L22" s="4">
+        <v>1</v>
+      </c>
+      <c r="M22" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="7">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="E23" s="3">
         <v>45181</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" s="6">
-        <v>1</v>
-      </c>
-      <c r="M23" s="6">
+      <c r="F23" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G23" s="3">
+        <v>45213</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="7">
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="E24" s="3">
         <v>45181</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="6">
-        <v>1</v>
-      </c>
-      <c r="M24" s="6">
+      <c r="F24" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G24" s="3">
+        <v>45213</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L24" s="4">
+        <v>1</v>
+      </c>
+      <c r="M24" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="7">
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="E25" s="3">
         <v>45181</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L25" s="6">
-        <v>1</v>
-      </c>
-      <c r="M25" s="6">
+      <c r="F25" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G25" s="3">
+        <v>45213</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L25" s="4">
+        <v>1</v>
+      </c>
+      <c r="M25" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="7">
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="E26" s="3">
         <v>45181</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26" s="6">
-        <v>1</v>
-      </c>
-      <c r="M26" s="6">
+      <c r="F26" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G26" s="3">
+        <v>45213</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L26" s="4">
+        <v>1</v>
+      </c>
+      <c r="M26" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="7">
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="E27" s="3">
         <v>45181</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L27" s="6">
-        <v>1</v>
-      </c>
-      <c r="M27" s="6">
+      <c r="F27" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G27" s="3">
+        <v>45213</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L27" s="4">
+        <v>1</v>
+      </c>
+      <c r="M27" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="7">
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="E28" s="3">
         <v>45181</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L28" s="6">
-        <v>1</v>
-      </c>
-      <c r="M28" s="6">
+      <c r="F28" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G28" s="3">
+        <v>45213</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L28" s="4">
+        <v>1</v>
+      </c>
+      <c r="M28" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="7">
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="E29" s="3">
         <v>45181</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L29" s="6">
-        <v>1</v>
-      </c>
-      <c r="M29" s="6">
+      <c r="F29" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G29" s="3">
+        <v>45213</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L29" s="4">
+        <v>1</v>
+      </c>
+      <c r="M29" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="7">
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="E30" s="3">
         <v>45181</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L30" s="6">
-        <v>1</v>
-      </c>
-      <c r="M30" s="6">
+      <c r="F30" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G30" s="3">
+        <v>45213</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L30" s="4">
+        <v>1</v>
+      </c>
+      <c r="M30" s="4">
         <v>2</v>
       </c>
     </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="E31" s="3">
+        <v>45265</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G31" s="3">
+        <v>44930</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L31" s="4">
+        <v>1</v>
+      </c>
+      <c r="M31" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="E32" s="3">
+        <v>45265</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G32" s="3">
+        <v>44930</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L32" s="4">
+        <v>1</v>
+      </c>
+      <c r="M32" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="E33" s="3">
+        <v>45265</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G33" s="3">
+        <v>44930</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L33" s="4">
+        <v>1</v>
+      </c>
+      <c r="M33" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="E34" s="3">
+        <v>45265</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G34" s="3">
+        <v>44930</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L34" s="4">
+        <v>1</v>
+      </c>
+      <c r="M34" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="E35" s="3">
+        <v>45265</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G35" s="3">
+        <v>44930</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L35" s="4">
+        <v>1</v>
+      </c>
+      <c r="M35" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="E36" s="3">
+        <v>45265</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G36" s="3">
+        <v>44930</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L36" s="4">
+        <v>1</v>
+      </c>
+      <c r="M36" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="E37" s="3">
+        <v>45265</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G37" s="3">
+        <v>44930</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L37" s="4">
+        <v>1</v>
+      </c>
+      <c r="M37" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" ht="15" customHeight="1">
+      <c r="A38" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="E38" s="3">
+        <v>45265</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G38" s="3">
+        <v>44930</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L38" s="4">
+        <v>1</v>
+      </c>
+      <c r="M38" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1">
+      <c r="A39" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="E39" s="3">
+        <v>45265</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G39" s="3">
+        <v>44930</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L39" s="4">
+        <v>1</v>
+      </c>
+      <c r="M39" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" ht="15" customHeight="1">
+      <c r="A40" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="E40" s="3">
+        <v>45265</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G40" s="3">
+        <v>44930</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L40" s="4">
+        <v>1</v>
+      </c>
+      <c r="M40" s="4">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>